--- a/semestr-4/ТПР/Electro.xlsx
+++ b/semestr-4/ТПР/Electro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grigo\Documents\GitHub\Practic_MIREA\semestr-4\ТПР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grigo\Documents\Work\Practic_MIREA\semestr-4\ТПР\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5682F3-C7DE-47B2-9DAB-B8B19FDC2A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40A33E9-A72E-4CCC-A4AA-D11715906736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7785" xr2:uid="{D56FA2F7-FE88-45A1-9775-1552BFD483B6}"/>
+    <workbookView xWindow="7320" yWindow="-105" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D56FA2F7-FE88-45A1-9775-1552BFD483B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -203,14 +203,29 @@
     <t>-</t>
   </si>
   <si>
-    <t>13/5</t>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +255,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -521,15 +543,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -587,12 +757,58 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,123 +818,46 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -735,7 +874,7 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="3D3D3D"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1029,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3EC558-935E-4073-BD51-9C8F6520975D}">
   <dimension ref="D2:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="F11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1050,250 +1189,250 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="25"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="4:9" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="D4" s="26"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="27" t="s">
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>15</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="25">
         <v>15</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>10</v>
       </c>
-      <c r="I5" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D6" s="28" t="s">
+      <c r="I5" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="43">
         <v>10</v>
       </c>
-      <c r="G6" s="34">
-        <v>5</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="44">
+        <v>5</v>
+      </c>
+      <c r="H6" s="43">
         <v>10</v>
       </c>
-      <c r="I6" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D7" s="28" t="s">
+      <c r="I6" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="43">
         <v>10</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="44">
         <v>10</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="43">
         <v>15</v>
       </c>
-      <c r="I7" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D8" s="28" t="s">
+      <c r="I7" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="5">
-        <v>5</v>
-      </c>
-      <c r="G8" s="34">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" s="43">
+        <v>5</v>
+      </c>
+      <c r="G8" s="44">
+        <v>5</v>
+      </c>
+      <c r="H8" s="43">
         <v>10</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="45">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D9" s="28" t="s">
+    <row r="9" spans="4:9" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5">
-        <v>5</v>
-      </c>
-      <c r="G9" s="34">
+      <c r="F9" s="43">
+        <v>5</v>
+      </c>
+      <c r="G9" s="44">
         <v>15</v>
       </c>
-      <c r="H9" s="5">
-        <v>5</v>
-      </c>
-      <c r="I9" s="36">
+      <c r="H9" s="43">
+        <v>5</v>
+      </c>
+      <c r="I9" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D10" s="28" t="s">
+    <row r="10" spans="4:9" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="43">
         <v>15</v>
       </c>
-      <c r="G10" s="34">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="44">
+        <v>5</v>
+      </c>
+      <c r="H10" s="43">
         <v>10</v>
       </c>
-      <c r="I10" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D11" s="28" t="s">
+      <c r="I10" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="5">
-        <v>5</v>
-      </c>
-      <c r="G11" s="34">
+      <c r="F11" s="43">
+        <v>5</v>
+      </c>
+      <c r="G11" s="44">
         <v>15</v>
       </c>
-      <c r="H11" s="5">
-        <v>5</v>
-      </c>
-      <c r="I11" s="36">
+      <c r="H11" s="43">
+        <v>5</v>
+      </c>
+      <c r="I11" s="45">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D12" s="28" t="s">
+    <row r="12" spans="4:9" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="43">
         <v>15</v>
       </c>
-      <c r="G12" s="34">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G12" s="44">
+        <v>5</v>
+      </c>
+      <c r="H12" s="43">
         <v>15</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="45">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>10</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="25">
         <v>15</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>10</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>15</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="26">
         <v>10</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="47">
         <v>15</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="10">
-        <v>5</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="E15" s="33"/>
+      <c r="F15" s="9">
+        <v>5</v>
+      </c>
+      <c r="G15" s="9">
         <v>4</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>4</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1302,109 +1441,109 @@
         <v>30</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="5:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="5:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="L19" s="12" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="L19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="8">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="5:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="L20" s="12" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="L20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <v>4</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="5:16" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="L21" s="12" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="L21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <v>4</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="P21" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="5:16" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="6"/>
-      <c r="L22" s="15" t="s">
+      <c r="E22" s="5"/>
+      <c r="L22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="16">
-        <v>5</v>
-      </c>
-      <c r="N22" s="17" t="s">
+      <c r="M22" s="15">
+        <v>5</v>
+      </c>
+      <c r="N22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1423,243 +1562,414 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AFDE0F-8AED-4B03-A3EE-F68692EF7B2A}">
-  <dimension ref="E3:O14"/>
+  <dimension ref="E2:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E3" s="40"/>
-      <c r="F3" s="40">
+    <row r="2" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="5:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="55"/>
+      <c r="F3" s="56">
         <v>1</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="56">
         <v>2</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="56">
         <v>3</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="56">
         <v>4</v>
       </c>
-      <c r="J3" s="40">
-        <v>5</v>
-      </c>
-      <c r="K3" s="40">
+      <c r="J3" s="56">
+        <v>5</v>
+      </c>
+      <c r="K3" s="56">
         <v>6</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="56">
         <v>7</v>
       </c>
-      <c r="M3" s="40">
+      <c r="M3" s="56">
         <v>8</v>
       </c>
-      <c r="N3" s="40">
+      <c r="N3" s="56">
         <v>9</v>
       </c>
-      <c r="O3" s="40">
+      <c r="O3" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E4" s="40">
+    <row r="4" spans="5:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="E4" s="52">
         <v>1</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-    </row>
-    <row r="5" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E5" s="40">
+      <c r="G4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="5:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="E5" s="50">
         <v>2</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-    </row>
-    <row r="6" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E6" s="40">
+      <c r="H5" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="5:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="E6" s="50">
         <v>3</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40" t="s">
+      <c r="G6" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-    </row>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E7" s="40">
+      <c r="I6" s="48"/>
+      <c r="J6" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="E7" s="50">
         <v>4</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40" t="s">
+      <c r="G7" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-    </row>
-    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E8" s="40">
-        <v>5</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40" t="s">
+      <c r="J7" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="E8" s="50">
+        <v>5</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-    </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="40">
+      <c r="K8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="E9" s="50">
         <v>6</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40" t="s">
+      <c r="F9" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-    </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="40">
+      <c r="L9" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="E10" s="50">
         <v>7</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40" t="s">
+      <c r="F10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-    </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E11" s="40">
+      <c r="M10" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="E11" s="50">
         <v>8</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40" t="s">
+      <c r="F11" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-    </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="40">
+      <c r="N11" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="E12" s="50">
         <v>9</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40" t="s">
+      <c r="F12" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="40"/>
-    </row>
-    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E13" s="40">
+      <c r="O12" s="59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="51">
         <v>10</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40" t="s">
+      <c r="F13" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="62" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K6 O7 O9 M5:M6 K12 O12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>